--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11619,10 +11619,222 @@
       <c r="D489" t="n">
         <v>384.9588888888889</v>
       </c>
-      <c r="E489" t="n">
-        <v>432.5471428571428</v>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>374.5742857142857</v>
+      </c>
+      <c r="C490" t="n">
+        <v>376.9844444444445</v>
+      </c>
+      <c r="D490" t="n">
+        <v>381.9544444444445</v>
+      </c>
+      <c r="E490" t="n">
+        <v>377.6471428571429</v>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>375.9085714285715</v>
+      </c>
+      <c r="C491" t="n">
+        <v>380.4777777777778</v>
+      </c>
+      <c r="D491" t="n">
+        <v>383.9977777777778</v>
+      </c>
+      <c r="E491" t="n">
+        <v>381.2342857142857</v>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>372.1371428571428</v>
+      </c>
+      <c r="C492" t="n">
+        <v>379.2533333333333</v>
+      </c>
+      <c r="D492" t="n">
+        <v>376.6133333333333</v>
+      </c>
+      <c r="E492" t="n">
+        <v>380.1685714285715</v>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>374.5514285714286</v>
+      </c>
+      <c r="C493" t="n">
+        <v>382.9388888888889</v>
+      </c>
+      <c r="D493" t="n">
+        <v>383.8288888888889</v>
+      </c>
+      <c r="E493" t="n">
+        <v>387.6057142857143</v>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>358.6914285714286</v>
+      </c>
+      <c r="C494" t="n">
+        <v>369.6666666666667</v>
+      </c>
+      <c r="D494" t="n">
+        <v>379.5566666666667</v>
+      </c>
+      <c r="E494" t="n">
+        <v>388.0857142857143</v>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>372.0157142857143</v>
+      </c>
+      <c r="C495" t="n">
+        <v>381.4911111111111</v>
+      </c>
+      <c r="D495" t="n">
+        <v>386.8311111111111</v>
+      </c>
+      <c r="E495" t="n">
+        <v>393.1528571428572</v>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>369.0342857142857</v>
+      </c>
+      <c r="C496" t="n">
+        <v>379.7477777777778</v>
+      </c>
+      <c r="D496" t="n">
+        <v>384.3977777777778</v>
+      </c>
+      <c r="E496" t="n">
+        <v>393.0171428571429</v>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>359.0871428571429</v>
+      </c>
+      <c r="C497" t="n">
+        <v>383.1677777777778</v>
+      </c>
+      <c r="D497" t="n">
+        <v>381.6177777777777</v>
+      </c>
+      <c r="E497" t="n">
+        <v>385.3685714285714</v>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>365.5885714285714</v>
+      </c>
+      <c r="C498" t="n">
+        <v>382.9677777777778</v>
+      </c>
+      <c r="D498" t="n">
+        <v>383.4477777777778</v>
+      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11639,7 +11851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B552"/>
+  <dimension ref="A1:B561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17167,6 +17379,96 @@
       </c>
       <c r="B552" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -17335,28 +17637,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04819088385911291</v>
+        <v>0.07140785409931359</v>
       </c>
       <c r="J2" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K2" t="n">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001215783120964153</v>
+        <v>0.002752295005312044</v>
       </c>
       <c r="M2" t="n">
-        <v>7.536119327878213</v>
+        <v>7.543969595867782</v>
       </c>
       <c r="N2" t="n">
-        <v>102.5122866348585</v>
+        <v>101.7485886574828</v>
       </c>
       <c r="O2" t="n">
-        <v>10.12483514112</v>
+        <v>10.08705054302212</v>
       </c>
       <c r="P2" t="n">
-        <v>362.2704314201376</v>
+        <v>362.0474999434788</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -17412,28 +17714,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1230981662886082</v>
+        <v>0.1192777770492898</v>
       </c>
       <c r="J3" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K3" t="n">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01053088597445195</v>
+        <v>0.01026711082887999</v>
       </c>
       <c r="M3" t="n">
-        <v>6.767613718422684</v>
+        <v>6.689195157123723</v>
       </c>
       <c r="N3" t="n">
-        <v>78.64097837325087</v>
+        <v>77.41556852903254</v>
       </c>
       <c r="O3" t="n">
-        <v>8.867974874414726</v>
+        <v>8.798611738736545</v>
       </c>
       <c r="P3" t="n">
-        <v>377.5248929882644</v>
+        <v>377.5609361205055</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -17489,28 +17791,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1483247868704247</v>
+        <v>0.1464156107088216</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K4" t="n">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01493658735689707</v>
+        <v>0.01513959073402427</v>
       </c>
       <c r="M4" t="n">
-        <v>6.7842033520026</v>
+        <v>6.69201332846832</v>
       </c>
       <c r="N4" t="n">
-        <v>81.89070297451261</v>
+        <v>80.42677588259357</v>
       </c>
       <c r="O4" t="n">
-        <v>9.04934820716457</v>
+        <v>8.968097673564532</v>
       </c>
       <c r="P4" t="n">
-        <v>379.2152671712656</v>
+        <v>379.2330050007486</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17566,28 +17868,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2494345399819702</v>
+        <v>0.2144745288085567</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K5" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01316753157818595</v>
+        <v>0.01031388880241435</v>
       </c>
       <c r="M5" t="n">
-        <v>10.97257530876158</v>
+        <v>10.74277722183223</v>
       </c>
       <c r="N5" t="n">
-        <v>265.0176518540038</v>
+        <v>256.2420337261538</v>
       </c>
       <c r="O5" t="n">
-        <v>16.27936275945726</v>
+        <v>16.00756176705728</v>
       </c>
       <c r="P5" t="n">
-        <v>383.0539573136712</v>
+        <v>383.371590012847</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17624,7 +17926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F489"/>
+  <dimension ref="A1:F498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32165,12 +32467,292 @@
           <t>-34.95181828505885,173.62025176773685</t>
         </is>
       </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>-34.952064552349675,173.6211992970234</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-34.95052916938535,173.61993803564582</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-34.95121651995035,173.6198694199512</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-34.951832249167296,173.62022357127367</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-34.952386922105156,173.6207429956877</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>-34.95053040735433,173.6199525707634</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-34.95121215023751,173.6199073082559</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-34.95182275212828,173.62024274778943</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>-34.952365858652946,173.62077281033396</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-34.950526908165564,173.61991148649213</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-34.95121368186211,173.61989402806816</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-34.95185707365918,173.62017344536278</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-34.95237211645351,173.62076395261906</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>-34.95052914817815,173.61993778665024</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>-34.951209071695466,173.61993400119073</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>-34.951823537093006,173.6202411627812</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>-34.95232844605174,173.62082576661737</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>-34.95051443291408,173.6197650148668</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>-34.95122567351547,173.61979005213385</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>-34.95184339359534,173.62020106832014</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-34.952325627523,173.62082975614706</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-34.950526795502064,173.61991016370314</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-34.951210882685004,173.61991829875572</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-34.95180958330901,173.62026933838305</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-34.95229587358239,173.6208718717907</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-34.9505240292771,173.6198776853441</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-34.95121306337504,173.61989939075747</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-34.9518208930012,173.6202465017561</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-34.952296670488224,173.62087074379954</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-34.95051480006968,173.61976932560145</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-34.95120878538381,173.6199364836938</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-34.951833813932005,173.62022041168416</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-34.952341582407136,173.62080717255563</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>-34.95052083226836,173.61984014926523</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-34.951209035559046,173.61993431451637</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-34.95182530842782,173.62023758608498</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -17482,7 +17482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17573,35 +17573,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17660,27 +17665,28 @@
       <c r="P2" t="n">
         <v>362.0474999434788</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.61585760552583 -34.950181565142564, 173.62596772626992 -34.95104257081496)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.6158576055258</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.95018156514256</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.6259677262699</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.95104257081496</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.6209126658979</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.95061206797877</v>
       </c>
     </row>
@@ -17737,27 +17743,28 @@
       <c r="P3" t="n">
         <v>377.5609361205055</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.61578066392093 -34.95168801000727, 173.62584634380997 -34.950527041066834)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.6157806639209</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.95168801000727</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.62584634381</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.95052704106683</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.6208135038655</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.95110752553705</v>
       </c>
     </row>
@@ -17814,27 +17821,28 @@
       <c r="P4" t="n">
         <v>379.2330050007486</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.61663888190571 -34.95360745083044, 173.62534519642435 -34.94929561432046)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.6166388819057</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.95360745083044</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.6253451964243</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.94929561432046</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.620992039165</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.95145153257545</v>
       </c>
     </row>
@@ -17891,27 +17899,28 @@
       <c r="P5" t="n">
         <v>383.371590012847</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.61760408454032 -34.954604399284136, 173.62531264022016 -34.949158349109794)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.6176040845403</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.95460439928414</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.6253126402202</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.94915834910979</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.6214583623802</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.95188137419697</v>
       </c>
     </row>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:F504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11835,6 +11835,146 @@
       </c>
       <c r="E498" t="inlineStr"/>
       <c r="F498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>363.6614285714285</v>
+      </c>
+      <c r="C499" t="n">
+        <v>372.4633333333333</v>
+      </c>
+      <c r="D499" t="n">
+        <v>369.2033333333333</v>
+      </c>
+      <c r="E499" t="n">
+        <v>375.7057142857143</v>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>379.8328571428572</v>
+      </c>
+      <c r="C500" t="n">
+        <v>379.9377777777778</v>
+      </c>
+      <c r="D500" t="n">
+        <v>376.5577777777777</v>
+      </c>
+      <c r="E500" t="n">
+        <v>375.0314285714285</v>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>355.8557142857143</v>
+      </c>
+      <c r="C501" t="n">
+        <v>385.8333333333333</v>
+      </c>
+      <c r="D501" t="n">
+        <v>389.3833333333333</v>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>361.6314285714286</v>
+      </c>
+      <c r="C502" t="n">
+        <v>381.13</v>
+      </c>
+      <c r="D502" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>347.4071428571428</v>
+      </c>
+      <c r="C503" t="n">
+        <v>367.8833333333333</v>
+      </c>
+      <c r="D503" t="n">
+        <v>369.4633333333333</v>
+      </c>
+      <c r="E503" t="n">
+        <v>370.2385714285714</v>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>360.4542857142857</v>
+      </c>
+      <c r="C504" t="n">
+        <v>379.7966666666667</v>
+      </c>
+      <c r="D504" t="n">
+        <v>381.7866666666667</v>
+      </c>
+      <c r="E504" t="n">
+        <v>384.2871428571429</v>
+      </c>
+      <c r="F504" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11851,7 +11991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B561"/>
+  <dimension ref="A1:B567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17469,6 +17609,66 @@
       </c>
       <c r="B561" t="n">
         <v>-0.37</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.15</v>
       </c>
     </row>
   </sheetData>
@@ -17642,28 +17842,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07140785409931359</v>
+        <v>0.06475263958183447</v>
       </c>
       <c r="J2" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K2" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002752295005312044</v>
+        <v>0.002300308451078537</v>
       </c>
       <c r="M2" t="n">
-        <v>7.543969595867782</v>
+        <v>7.54323985778694</v>
       </c>
       <c r="N2" t="n">
-        <v>101.7485886574828</v>
+        <v>101.7375738056675</v>
       </c>
       <c r="O2" t="n">
-        <v>10.08705054302212</v>
+        <v>10.08650453852411</v>
       </c>
       <c r="P2" t="n">
-        <v>362.0474999434788</v>
+        <v>362.1127608412743</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17720,28 +17920,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1192777770492898</v>
+        <v>0.1124130938692467</v>
       </c>
       <c r="J3" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K3" t="n">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01026711082887999</v>
+        <v>0.009311720122875511</v>
       </c>
       <c r="M3" t="n">
-        <v>6.689195157123723</v>
+        <v>6.664238432040968</v>
       </c>
       <c r="N3" t="n">
-        <v>77.41556852903254</v>
+        <v>76.95964189504814</v>
       </c>
       <c r="O3" t="n">
-        <v>8.798611738736545</v>
+        <v>8.772664469535361</v>
       </c>
       <c r="P3" t="n">
-        <v>377.5609361205055</v>
+        <v>377.6268454041424</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17798,28 +17998,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1464156107088216</v>
+        <v>0.1377464254123691</v>
       </c>
       <c r="J4" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K4" t="n">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01513959073402427</v>
+        <v>0.01360080113791939</v>
       </c>
       <c r="M4" t="n">
-        <v>6.69201332846832</v>
+        <v>6.70517182283568</v>
       </c>
       <c r="N4" t="n">
-        <v>80.42677588259357</v>
+        <v>80.47400534589516</v>
       </c>
       <c r="O4" t="n">
-        <v>8.968097673564532</v>
+        <v>8.970730480060984</v>
       </c>
       <c r="P4" t="n">
-        <v>379.2330050007486</v>
+        <v>379.3146302677506</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17876,28 +18076,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2144745288085567</v>
+        <v>0.1902090642910752</v>
       </c>
       <c r="J5" t="n">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K5" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01031388880241435</v>
+        <v>0.00825175365661035</v>
       </c>
       <c r="M5" t="n">
-        <v>10.74277722183223</v>
+        <v>10.73475651041847</v>
       </c>
       <c r="N5" t="n">
-        <v>256.2420337261538</v>
+        <v>255.4513939478599</v>
       </c>
       <c r="O5" t="n">
-        <v>16.00756176705728</v>
+        <v>15.98284686618313</v>
       </c>
       <c r="P5" t="n">
-        <v>383.371590012847</v>
+        <v>383.5955397592695</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17935,7 +18135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F498"/>
+  <dimension ref="A1:F504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32767,6 +32967,190 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:17:31+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-34.95051904421818,173.61981915582925</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-34.95122217526415,173.61982038447678</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-34.95189151392824,173.62010390304079</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-34.95239832203506,173.62072685943912</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-02 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-34.95053404835147,173.6199953201961</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-34.95121282570916,173.61990145147627</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-34.95185733187097,173.62017292397806</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-34.952402281392125,173.62072125508976</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>-34.950511801848734,173.61973412386317</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-34.951205451100165,173.61996539400755</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-34.95179772103825,173.6202932907654</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-34.95051716073069,173.61979704191432</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-34.9512113343897,173.61991438218513</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-34.951794390099394,173.62030001661813</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-34.95050396295039,173.61964208891422</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-34.95122790422006,173.61977071029278</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-34.9518903054984,173.62010634312324</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-34.95243042469603,173.62068141907406</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-34.950516068544694,173.6197842186453</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-34.951213002221245,173.6198999210009</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-34.95183302896753,173.62022199669275</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-34.95234793248341,173.6207981842363</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F504"/>
+  <dimension ref="A1:F508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11975,6 +11975,98 @@
         <v>384.2871428571429</v>
       </c>
       <c r="F504" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>352.9371428571428</v>
+      </c>
+      <c r="C505" t="n">
+        <v>364.5477777777778</v>
+      </c>
+      <c r="D505" t="n">
+        <v>370.7377777777778</v>
+      </c>
+      <c r="E505" t="n">
+        <v>375.2185714285715</v>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>362.4571428571429</v>
+      </c>
+      <c r="C506" t="n">
+        <v>386.95</v>
+      </c>
+      <c r="D506" t="n">
+        <v>382.91</v>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>357.5814285714285</v>
+      </c>
+      <c r="C507" t="n">
+        <v>384.57</v>
+      </c>
+      <c r="D507" t="n">
+        <v>383.3</v>
+      </c>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>353.2357142857143</v>
+      </c>
+      <c r="C508" t="n">
+        <v>375.4388888888889</v>
+      </c>
+      <c r="D508" t="n">
+        <v>371.0488888888889</v>
+      </c>
+      <c r="E508" t="n">
+        <v>376.4828571428571</v>
+      </c>
+      <c r="F508" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11991,7 +12083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B567"/>
+  <dimension ref="A1:B571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17669,6 +17761,46 @@
       </c>
       <c r="B567" t="n">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -17842,28 +17974,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06475263958183447</v>
+        <v>0.05179321024961052</v>
       </c>
       <c r="J2" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K2" t="n">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002300308451078537</v>
+        <v>0.001492949021699941</v>
       </c>
       <c r="M2" t="n">
-        <v>7.54323985778694</v>
+        <v>7.533608867659678</v>
       </c>
       <c r="N2" t="n">
-        <v>101.7375738056675</v>
+        <v>101.3993298849744</v>
       </c>
       <c r="O2" t="n">
-        <v>10.08650453852411</v>
+        <v>10.069723426439</v>
       </c>
       <c r="P2" t="n">
-        <v>362.1127608412743</v>
+        <v>362.2398810066105</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17920,28 +18052,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1124130938692467</v>
+        <v>0.1081211280423701</v>
       </c>
       <c r="J3" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K3" t="n">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009311720122875511</v>
+        <v>0.008691530889117116</v>
       </c>
       <c r="M3" t="n">
-        <v>6.664238432040968</v>
+        <v>6.676076256591905</v>
       </c>
       <c r="N3" t="n">
-        <v>76.95964189504814</v>
+        <v>77.02511754746685</v>
       </c>
       <c r="O3" t="n">
-        <v>8.772664469535361</v>
+        <v>8.776395475789981</v>
       </c>
       <c r="P3" t="n">
-        <v>377.6268454041424</v>
+        <v>377.6682717966537</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17998,28 +18130,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1377464254123691</v>
+        <v>0.1283583494877117</v>
       </c>
       <c r="J4" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K4" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01360080113791939</v>
+        <v>0.01195015297207935</v>
       </c>
       <c r="M4" t="n">
-        <v>6.70517182283568</v>
+        <v>6.695034199285239</v>
       </c>
       <c r="N4" t="n">
-        <v>80.47400534589516</v>
+        <v>80.39126139491781</v>
       </c>
       <c r="O4" t="n">
-        <v>8.970730480060984</v>
+        <v>8.966117409164225</v>
       </c>
       <c r="P4" t="n">
-        <v>379.3146302677506</v>
+        <v>379.403791416768</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18076,28 +18208,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1902090642910752</v>
+        <v>0.1780097308562634</v>
       </c>
       <c r="J5" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K5" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00825175365661035</v>
+        <v>0.007291258573954518</v>
       </c>
       <c r="M5" t="n">
-        <v>10.73475651041847</v>
+        <v>10.73093834989075</v>
       </c>
       <c r="N5" t="n">
-        <v>255.4513939478599</v>
+        <v>254.9593583906234</v>
       </c>
       <c r="O5" t="n">
-        <v>15.98284686618313</v>
+        <v>15.96744683381233</v>
       </c>
       <c r="P5" t="n">
-        <v>383.5955397592695</v>
+        <v>383.7090247942182</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18135,7 +18267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F504"/>
+  <dimension ref="A1:F508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33151,6 +33283,126 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-34.95050909389767,173.6197023302528</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-34.95123207653281,173.61973453321392</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-34.95188438212587,173.62011830369738</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-34.95240118250279,173.62072281053423</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>-34.95051792685066,173.6198060368775</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>-34.95120405428484,173.61997750524705</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>-34.951827807920495,173.62023253908475</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>-34.95051340302193,173.61975292302282</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>-34.951207031376335,173.61995169203755</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>-34.9518259952719,173.6202361992027</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr"/>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:51+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>-34.950509370922916,173.61970558275615</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>-34.95121845323876,173.61985265702623</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>-34.95188293614111,173.62012122345365</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>-34.952393758707956,173.62073331868854</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F508"/>
+  <dimension ref="A1:F511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12067,6 +12067,74 @@
         <v>376.4828571428571</v>
       </c>
       <c r="F508" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>356.6114285714286</v>
+      </c>
+      <c r="C509" t="n">
+        <v>376.3788888888889</v>
+      </c>
+      <c r="D509" t="n">
+        <v>373.8588888888889</v>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>349.0185714285714</v>
+      </c>
+      <c r="C510" t="n">
+        <v>374.81</v>
+      </c>
+      <c r="D510" t="n">
+        <v>378.65</v>
+      </c>
+      <c r="E510" t="n">
+        <v>382.5542857142857</v>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>356.5385714285715</v>
+      </c>
+      <c r="C511" t="n">
+        <v>378.8733333333333</v>
+      </c>
+      <c r="D511" t="n">
+        <v>375.9033333333333</v>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12083,7 +12151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B571"/>
+  <dimension ref="A1:B574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17801,6 +17869,36 @@
       </c>
       <c r="B571" t="n">
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -17974,28 +18072,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05179321024961052</v>
+        <v>0.0391886106200169</v>
       </c>
       <c r="J2" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K2" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001492949021699941</v>
+        <v>0.0008615959075248814</v>
       </c>
       <c r="M2" t="n">
-        <v>7.533608867659678</v>
+        <v>7.542474095310483</v>
       </c>
       <c r="N2" t="n">
-        <v>101.3993298849744</v>
+        <v>101.399886513121</v>
       </c>
       <c r="O2" t="n">
-        <v>10.069723426439</v>
+        <v>10.06975106510191</v>
       </c>
       <c r="P2" t="n">
-        <v>362.2398810066105</v>
+        <v>362.3639185140087</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18052,28 +18150,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1081211280423701</v>
+        <v>0.1035888520666918</v>
       </c>
       <c r="J3" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008691530889117116</v>
+        <v>0.008077237162453565</v>
       </c>
       <c r="M3" t="n">
-        <v>6.676076256591905</v>
+        <v>6.658369700723904</v>
       </c>
       <c r="N3" t="n">
-        <v>77.02511754746685</v>
+        <v>76.63660229833424</v>
       </c>
       <c r="O3" t="n">
-        <v>8.776395475789981</v>
+        <v>8.754233392955333</v>
       </c>
       <c r="P3" t="n">
-        <v>377.6682717966537</v>
+        <v>377.7122049399663</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18130,28 +18228,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1283583494877117</v>
+        <v>0.1205654793991708</v>
       </c>
       <c r="J4" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K4" t="n">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01195015297207935</v>
+        <v>0.01065609751589291</v>
       </c>
       <c r="M4" t="n">
-        <v>6.695034199285239</v>
+        <v>6.690178311231858</v>
       </c>
       <c r="N4" t="n">
-        <v>80.39126139491781</v>
+        <v>80.17261374511634</v>
       </c>
       <c r="O4" t="n">
-        <v>8.966117409164225</v>
+        <v>8.953916112244761</v>
       </c>
       <c r="P4" t="n">
-        <v>379.403791416768</v>
+        <v>379.4780462731088</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18208,28 +18306,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1780097308562634</v>
+        <v>0.1752385160246203</v>
       </c>
       <c r="J5" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007291258573954518</v>
+        <v>0.007103789786499837</v>
       </c>
       <c r="M5" t="n">
-        <v>10.73093834989075</v>
+        <v>10.71542669672963</v>
       </c>
       <c r="N5" t="n">
-        <v>254.9593583906234</v>
+        <v>254.400128568967</v>
       </c>
       <c r="O5" t="n">
-        <v>15.96744683381233</v>
+        <v>15.94992566029594</v>
       </c>
       <c r="P5" t="n">
-        <v>383.7090247942182</v>
+        <v>383.7348880192497</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18267,7 +18365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F508"/>
+  <dimension ref="A1:F511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33403,6 +33501,94 @@
         </is>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>-34.9505125030251,173.61974235627653</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>-34.95121727742164,173.61986285216256</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>-34.95186987579707,173.62014759510478</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>-34.95050545809907,173.61965964309326</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>-34.95121923989606,173.61984583616652</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>-34.95184760761341,173.62019255932407</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-34.95235810770336,173.62078378155</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>-34.95051243542589,173.61974156260342</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>-34.9512141571936,173.61988990663048</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>-34.95186037360569,173.62016678206592</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F511"/>
+  <dimension ref="A1:F515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12135,6 +12135,96 @@
       </c>
       <c r="E511" t="inlineStr"/>
       <c r="F511" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="n">
+        <v>378.4744444444444</v>
+      </c>
+      <c r="D512" t="n">
+        <v>374.8144444444445</v>
+      </c>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>350.5428571428571</v>
+      </c>
+      <c r="C513" t="n">
+        <v>371.5888888888889</v>
+      </c>
+      <c r="D513" t="n">
+        <v>374.1488888888889</v>
+      </c>
+      <c r="E513" t="n">
+        <v>380.1014285714285</v>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>338.49</v>
+      </c>
+      <c r="C514" t="n">
+        <v>359.1377777777778</v>
+      </c>
+      <c r="D514" t="n">
+        <v>366.1477777777778</v>
+      </c>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>350.6357142857143</v>
+      </c>
+      <c r="C515" t="n">
+        <v>375.9188888888889</v>
+      </c>
+      <c r="D515" t="n">
+        <v>372.9288888888889</v>
+      </c>
+      <c r="E515" t="n">
+        <v>382.9228571428571</v>
+      </c>
+      <c r="F515" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12151,7 +12241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B574"/>
+  <dimension ref="A1:B578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17899,6 +17989,46 @@
       </c>
       <c r="B574" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -18072,28 +18202,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0391886106200169</v>
+        <v>0.01722208752023464</v>
       </c>
       <c r="J2" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K2" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0008615959075248814</v>
+        <v>0.0001653646308773515</v>
       </c>
       <c r="M2" t="n">
-        <v>7.542474095310483</v>
+        <v>7.597402549198251</v>
       </c>
       <c r="N2" t="n">
-        <v>101.399886513121</v>
+        <v>102.8496494275205</v>
       </c>
       <c r="O2" t="n">
-        <v>10.06975106510191</v>
+        <v>10.14148161895098</v>
       </c>
       <c r="P2" t="n">
-        <v>362.3639185140087</v>
+        <v>362.5809713908125</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18150,28 +18280,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1035888520666918</v>
+        <v>0.08927039489181778</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K3" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008077237162453565</v>
+        <v>0.006023246665403659</v>
       </c>
       <c r="M3" t="n">
-        <v>6.658369700723904</v>
+        <v>6.681784225551322</v>
       </c>
       <c r="N3" t="n">
-        <v>76.63660229833424</v>
+        <v>77.14537468569166</v>
       </c>
       <c r="O3" t="n">
-        <v>8.754233392955333</v>
+        <v>8.783243972797958</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7122049399663</v>
+        <v>377.8515802656933</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18228,28 +18358,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1205654793991708</v>
+        <v>0.1041674458765465</v>
       </c>
       <c r="J4" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K4" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01065609751589291</v>
+        <v>0.008009547605283718</v>
       </c>
       <c r="M4" t="n">
-        <v>6.690178311231858</v>
+        <v>6.713983446342992</v>
       </c>
       <c r="N4" t="n">
-        <v>80.17261374511634</v>
+        <v>80.52330603372795</v>
       </c>
       <c r="O4" t="n">
-        <v>8.953916112244761</v>
+        <v>8.973477922953171</v>
       </c>
       <c r="P4" t="n">
-        <v>379.4780462731088</v>
+        <v>379.6349017078707</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18306,28 +18436,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1752385160246203</v>
+        <v>0.1687884484681292</v>
       </c>
       <c r="J5" t="n">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K5" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007103789786499837</v>
+        <v>0.006659572327099461</v>
       </c>
       <c r="M5" t="n">
-        <v>10.71542669672963</v>
+        <v>10.68860925879302</v>
       </c>
       <c r="N5" t="n">
-        <v>254.400128568967</v>
+        <v>253.3611078305914</v>
       </c>
       <c r="O5" t="n">
-        <v>15.94992566029594</v>
+        <v>15.91732100042565</v>
       </c>
       <c r="P5" t="n">
-        <v>383.7348880192497</v>
+        <v>383.7952922178458</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18365,7 +18495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F511"/>
+  <dimension ref="A1:F515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33589,6 +33719,122 @@
         </is>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr"/>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>-34.951214656152516,173.61988558032596</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>-34.95186543455582,173.62015656292414</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr"/>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>-34.950506872390726,173.61967624797774</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>-34.95122326907655,173.6198109003476</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>-34.95186852793208,173.62015031673377</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>-34.95237251071171,173.62076339455925</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>-34.95049568921825,173.61954494957607</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>-34.95123884366211,173.6196758569243</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>-34.95190571555717,173.62007522685258</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>-34.95050695854714,173.61967725952178</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>-34.951217852821614,173.61985786305334</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>-34.95187419826031,173.62013886712154</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>-34.95235594347701,173.6207868449411</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F515"/>
+  <dimension ref="A1:F521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12225,6 +12225,150 @@
         <v>382.9228571428571</v>
       </c>
       <c r="F515" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>346.5714285714286</v>
+      </c>
+      <c r="C516" t="n">
+        <v>365.78</v>
+      </c>
+      <c r="D516" t="n">
+        <v>367.86</v>
+      </c>
+      <c r="E516" t="n">
+        <v>374.6557142857143</v>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>353.4542857142857</v>
+      </c>
+      <c r="C517" t="n">
+        <v>375.9111111111111</v>
+      </c>
+      <c r="D517" t="n">
+        <v>374.9311111111111</v>
+      </c>
+      <c r="E517" t="n">
+        <v>390.7371428571428</v>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>357.93</v>
+      </c>
+      <c r="C518" t="n">
+        <v>370.0388888888889</v>
+      </c>
+      <c r="D518" t="n">
+        <v>371.2688888888889</v>
+      </c>
+      <c r="E518" t="n">
+        <v>373.77</v>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>357.9285714285714</v>
+      </c>
+      <c r="C519" t="n">
+        <v>370.5377777777778</v>
+      </c>
+      <c r="D519" t="n">
+        <v>373.8677777777777</v>
+      </c>
+      <c r="E519" t="n">
+        <v>374.4642857142857</v>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>350.1614285714285</v>
+      </c>
+      <c r="C520" t="n">
+        <v>370.2344444444445</v>
+      </c>
+      <c r="D520" t="n">
+        <v>368.5244444444445</v>
+      </c>
+      <c r="E520" t="n">
+        <v>370.1657142857143</v>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>358.1485714285715</v>
+      </c>
+      <c r="C521" t="n">
+        <v>373.91</v>
+      </c>
+      <c r="D521" t="n">
+        <v>369.69</v>
+      </c>
+      <c r="E521" t="n">
+        <v>370.0542857142857</v>
+      </c>
+      <c r="F521" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12241,7 +12385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B578"/>
+  <dimension ref="A1:B584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18029,6 +18173,66 @@
       </c>
       <c r="B578" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
@@ -18202,28 +18406,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01722208752023464</v>
+        <v>-0.005461367072442704</v>
       </c>
       <c r="J2" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K2" t="n">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001653646308773515</v>
+        <v>1.687652550630414e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>7.597402549198251</v>
+        <v>7.604183781686029</v>
       </c>
       <c r="N2" t="n">
-        <v>102.8496494275205</v>
+        <v>102.7744503384733</v>
       </c>
       <c r="O2" t="n">
-        <v>10.14148161895098</v>
+        <v>10.13777344087316</v>
       </c>
       <c r="P2" t="n">
-        <v>362.5809713908125</v>
+        <v>362.8058876639183</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18280,28 +18484,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08927039489181778</v>
+        <v>0.06847074223081272</v>
       </c>
       <c r="J3" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K3" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006023246665403659</v>
+        <v>0.00358899548088043</v>
       </c>
       <c r="M3" t="n">
-        <v>6.681784225551322</v>
+        <v>6.713002930974831</v>
       </c>
       <c r="N3" t="n">
-        <v>77.14537468569166</v>
+        <v>77.30930362953305</v>
       </c>
       <c r="O3" t="n">
-        <v>8.783243972797958</v>
+        <v>8.792570934006335</v>
       </c>
       <c r="P3" t="n">
-        <v>377.8515802656933</v>
+        <v>378.0548532426283</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18358,28 +18562,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1041674458765465</v>
+        <v>0.07865447778916694</v>
       </c>
       <c r="J4" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K4" t="n">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008009547605283718</v>
+        <v>0.004603294334491248</v>
       </c>
       <c r="M4" t="n">
-        <v>6.713983446342992</v>
+        <v>6.754993247261259</v>
       </c>
       <c r="N4" t="n">
-        <v>80.52330603372795</v>
+        <v>81.15201977965806</v>
       </c>
       <c r="O4" t="n">
-        <v>8.973477922953171</v>
+        <v>9.008441584406155</v>
       </c>
       <c r="P4" t="n">
-        <v>379.6349017078707</v>
+        <v>379.880054884572</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18436,28 +18640,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1687884484681292</v>
+        <v>0.1342760104783837</v>
       </c>
       <c r="J5" t="n">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K5" t="n">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006659572327099461</v>
+        <v>0.004310369443434992</v>
       </c>
       <c r="M5" t="n">
-        <v>10.68860925879302</v>
+        <v>10.69165713752021</v>
       </c>
       <c r="N5" t="n">
-        <v>253.3611078305914</v>
+        <v>252.5630258518296</v>
       </c>
       <c r="O5" t="n">
-        <v>15.91732100042565</v>
+        <v>15.89223161962566</v>
       </c>
       <c r="P5" t="n">
-        <v>383.7952922178458</v>
+        <v>384.1200484226397</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18495,7 +18699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F515"/>
+  <dimension ref="A1:F521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33835,6 +34039,198 @@
         </is>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>-34.950503187539844,173.6196329850184</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>-34.951230535196665,173.61974789776482</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>-34.951897757481554,173.6200912959469</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>-34.95240448755918,173.62071813232706</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>-34.95050957372123,173.6197079637754</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>-34.95121786255059,173.6198577786964</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>-34.95186489231121,173.62015765783224</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>-34.95231005850485,173.62085179354435</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>-34.95051372643735,173.61975672020418</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>-34.9512252079163,173.6197940892158</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>-34.95188191362328,173.6201232881384</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>-34.95240968840897,173.62071077068052</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>-34.95051372511188,173.61975670464196</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>-34.951224583874236,173.61979950011062</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-34.95186983448321,173.62014767852637</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>-34.95240561161385,173.6207165412616</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>-34.95050651848666,173.619672092866</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>-34.951224963302955,173.61979621019017</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>-34.951894669272555,173.62009753171404</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>-34.95243085250772,173.6206808135189</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:17:43+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>-34.95051392923467,173.61975910122365</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>-34.95122036567707,173.61983607486528</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>-34.95188925199543,173.6201084703746</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>-34.95243150680791,173.62067988737573</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F521"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12369,6 +12369,54 @@
         <v>370.0542857142857</v>
       </c>
       <c r="F521" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>334.9357142857143</v>
+      </c>
+      <c r="C522" t="n">
+        <v>371.7022222222223</v>
+      </c>
+      <c r="D522" t="n">
+        <v>375.0622222222222</v>
+      </c>
+      <c r="E522" t="n">
+        <v>375.0028571428572</v>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>362.4828571428571</v>
+      </c>
+      <c r="C523" t="n">
+        <v>377.0955555555556</v>
+      </c>
+      <c r="D523" t="n">
+        <v>376.2755555555556</v>
+      </c>
+      <c r="E523" t="n">
+        <v>379.9214285714286</v>
+      </c>
+      <c r="F523" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12385,7 +12433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B584"/>
+  <dimension ref="A1:B586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18233,6 +18281,26 @@
       </c>
       <c r="B584" t="n">
         <v>0.54</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -18699,7 +18767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F521"/>
+  <dimension ref="A1:F523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34231,6 +34299,70 @@
         </is>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>-34.950492391368016,173.6195062307934</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>-34.951223127311835,173.61981212954862</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>-34.951864282931524,173.62015888830038</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>-34.952402449161475,173.6207210176173</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-34.95051795070905,173.61980631699748</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-34.95121638096475,173.61987062505</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-34.95185864358682,173.62017027534367</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-34.9523735676592,173.62076189848392</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -18474,28 +18474,28 @@
         <v>0.0357</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.005461367072442704</v>
+        <v>-0.01719693703101468</v>
       </c>
       <c r="J2" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K2" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L2" t="n">
-        <v>1.687652550630414e-05</v>
+        <v>0.0001660272303658505</v>
       </c>
       <c r="M2" t="n">
-        <v>7.604183781686029</v>
+        <v>7.62749962685462</v>
       </c>
       <c r="N2" t="n">
-        <v>102.7744503384733</v>
+        <v>104.0454521134888</v>
       </c>
       <c r="O2" t="n">
-        <v>10.13777344087316</v>
+        <v>10.20026725696385</v>
       </c>
       <c r="P2" t="n">
-        <v>362.8058876639183</v>
+        <v>362.923171323285</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18552,28 +18552,28 @@
         <v>0.0475</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06847074223081272</v>
+        <v>0.06431325594603549</v>
       </c>
       <c r="J3" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K3" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00358899548088043</v>
+        <v>0.003187878623296947</v>
       </c>
       <c r="M3" t="n">
-        <v>6.713002930974831</v>
+        <v>6.708003153176958</v>
       </c>
       <c r="N3" t="n">
-        <v>77.30930362953305</v>
+        <v>77.13862906699326</v>
       </c>
       <c r="O3" t="n">
-        <v>8.792570934006335</v>
+        <v>8.782859959431965</v>
       </c>
       <c r="P3" t="n">
-        <v>378.0548532426283</v>
+        <v>378.0958176305784</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18630,28 +18630,28 @@
         <v>0.0486</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07865447778916694</v>
+        <v>0.07393481877602717</v>
       </c>
       <c r="J4" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004603294334491248</v>
+        <v>0.004095160498203909</v>
       </c>
       <c r="M4" t="n">
-        <v>6.754993247261259</v>
+        <v>6.749986322959188</v>
       </c>
       <c r="N4" t="n">
-        <v>81.15201977965806</v>
+        <v>80.97657364304229</v>
       </c>
       <c r="O4" t="n">
-        <v>9.008441584406155</v>
+        <v>8.998698441610447</v>
       </c>
       <c r="P4" t="n">
-        <v>379.880054884572</v>
+        <v>379.9257850480979</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18708,28 +18708,28 @@
         <v>0.08</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1342760104783837</v>
+        <v>0.1249681357992619</v>
       </c>
       <c r="J5" t="n">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004310369443434992</v>
+        <v>0.003766978690379008</v>
       </c>
       <c r="M5" t="n">
-        <v>10.69165713752021</v>
+        <v>10.67978051363729</v>
       </c>
       <c r="N5" t="n">
-        <v>252.5630258518296</v>
+        <v>251.8527507183729</v>
       </c>
       <c r="O5" t="n">
-        <v>15.89223161962566</v>
+        <v>15.86986927225215</v>
       </c>
       <c r="P5" t="n">
-        <v>384.1200484226397</v>
+        <v>384.2082917415358</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">

--- a/data/nzd0035/nzd0035.xlsx
+++ b/data/nzd0035/nzd0035.xlsx
@@ -18465,13 +18465,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.034</v>
+        <v>0.049</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0357</v>
+        <v>0.0612</v>
       </c>
       <c r="I2" t="n">
         <v>-0.01720347905919951</v>
@@ -18543,13 +18543,13 @@
         <v>0.3296628022491214</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0433</v>
+        <v>0.0512</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0475</v>
+        <v>0.0682</v>
       </c>
       <c r="I3" t="n">
         <v>0.0643246688971105</v>
@@ -18624,10 +18624,10 @@
         <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0442</v>
+        <v>0.0432</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0486</v>
+        <v>0.0502</v>
       </c>
       <c r="I4" t="n">
         <v>0.07394605792922504</v>
@@ -18699,13 +18699,13 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0596</v>
+        <v>0.0246</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08</v>
+        <v>0.0295</v>
       </c>
       <c r="I5" t="n">
         <v>0.1249504857731994</v>
